--- a/ranges.xlsx
+++ b/ranges.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyneil/Desktop/rewilding_resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{818AF549-A692-8C45-94CF-80AC1F390802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844A48A-DE5C-124D-8ACA-3BC8A0469E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16120" xr2:uid="{A8547E30-E349-F442-B51D-1AAEFCC73482}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16120" xr2:uid="{A8547E30-E349-F442-B51D-1AAEFCC73482}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:AW3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,13 +680,13 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3.4526878346866001E-3</v>
+        <v>1.0677978349522549E-2</v>
       </c>
       <c r="B2">
-        <v>2.8953733656731259E-2</v>
+        <v>7.3699784085355158E-2</v>
       </c>
       <c r="C2">
-        <v>1.8505355235023169E-2</v>
+        <v>0.23251663668636049</v>
       </c>
       <c r="D2">
         <v>1.8670164546399999E-3</v>
@@ -695,141 +695,141 @@
         <v>3.0390863895783998E-3</v>
       </c>
       <c r="F2">
-        <v>0.15614715869026111</v>
+        <v>0.31924438159449431</v>
       </c>
       <c r="G2">
-        <v>0.1115684790485215</v>
+        <v>0.25547200692240479</v>
       </c>
       <c r="H2">
-        <v>0.19554727963032531</v>
+        <v>0.37664605190257072</v>
       </c>
       <c r="I2">
-        <v>1.8630277148478651E-3</v>
+        <v>2.3635916749662482E-3</v>
       </c>
       <c r="J2">
         <v>0.12744690276312801</v>
       </c>
       <c r="K2">
-        <v>3.8789060549769543E-2</v>
+        <v>1.3871949443754821E-2</v>
       </c>
       <c r="L2">
-        <v>3.9906904187893E-3</v>
+        <v>1.5923241139799298E-2</v>
       </c>
       <c r="M2">
-        <v>9.6931620691312901E-4</v>
+        <v>5.4910744572851701E-2</v>
       </c>
       <c r="N2">
-        <v>4.7201406236839884E-3</v>
+        <v>2.6471378178950001E-2</v>
       </c>
       <c r="O2">
-        <v>0.44008319724962019</v>
+        <v>0.56198219733596044</v>
       </c>
       <c r="P2">
         <v>2.0989209613724601E-2</v>
       </c>
       <c r="Q2">
-        <v>5.5703744051621477E-2</v>
+        <v>0.17470353760207799</v>
       </c>
       <c r="R2">
-        <v>2.8200445018215569E-2</v>
+        <v>0.18075157117934901</v>
       </c>
       <c r="S2">
         <v>5.3448301575575001E-3</v>
       </c>
       <c r="T2">
-        <v>2.7614582902609499E-3</v>
+        <v>8.5698109252469595E-2</v>
       </c>
       <c r="U2">
-        <v>0.37547037060800931</v>
+        <v>0.41043778180456802</v>
       </c>
       <c r="V2">
-        <v>0.2602225577055487</v>
+        <v>0.82270638127721052</v>
       </c>
       <c r="W2">
-        <v>4.6456167278734438E-2</v>
+        <v>0.17026660211100389</v>
       </c>
       <c r="X2">
-        <v>2.28364713036181E-2</v>
+        <v>0.15832096809013901</v>
       </c>
       <c r="Y2">
-        <v>8.7137950472754005E-3</v>
+        <v>1.5065164473948079E-2</v>
       </c>
       <c r="Z2">
-        <v>2.3711033233950352E-2</v>
+        <v>8.6315764336884811E-3</v>
       </c>
       <c r="AA2">
-        <v>0.1171585875785961</v>
+        <v>0.42496023035477798</v>
       </c>
       <c r="AB2">
-        <v>9.5655595955882475E-4</v>
+        <v>5.6174209245325499E-2</v>
       </c>
       <c r="AC2">
         <v>3.3825955628502102E-2</v>
       </c>
       <c r="AD2">
-        <v>7.9567651250442538E-3</v>
+        <v>1.2356657523411699E-2</v>
       </c>
       <c r="AE2">
-        <v>2.821345853381697E-2</v>
+        <v>6.1496742445768309E-3</v>
       </c>
       <c r="AF2">
-        <v>5.8421429358422927E-2</v>
+        <v>0.115646764697444</v>
       </c>
       <c r="AG2">
         <v>5.3884223593677498E-2</v>
       </c>
       <c r="AH2">
-        <v>6.5757563076245E-3</v>
+        <v>1.1418786832505299E-2</v>
       </c>
       <c r="AI2">
-        <v>5.6647139024532452E-2</v>
+        <v>0.21766613578879801</v>
       </c>
       <c r="AJ2">
-        <v>1.619863176268499E-3</v>
+        <v>1.11678579741689E-2</v>
       </c>
       <c r="AK2">
-        <v>7.9122964139277779E-5</v>
+        <v>5.3188124930330212E-2</v>
       </c>
       <c r="AL2">
-        <v>0.19198668795559201</v>
+        <v>0.34933321383960902</v>
       </c>
       <c r="AM2">
         <v>0.13987820281646199</v>
       </c>
       <c r="AN2">
-        <v>2.919387512413248E-2</v>
+        <v>0.20445431848723319</v>
       </c>
       <c r="AO2">
-        <v>2.4596342074373379E-2</v>
+        <v>0.20020611918677381</v>
       </c>
       <c r="AP2">
-        <v>2.091906334827319E-2</v>
+        <v>3.8150943046188233E-2</v>
       </c>
       <c r="AQ2">
-        <v>1.1202221277864591E-2</v>
+        <v>1.038944944375564E-2</v>
       </c>
       <c r="AR2">
-        <v>0.2350574777549424</v>
+        <v>0.33475583517440999</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.8495447320023753E-2</v>
+        <v>2.07306177012637E-2</v>
       </c>
       <c r="B3">
-        <v>0.63487402101185697</v>
+        <v>0.36791989849481899</v>
       </c>
       <c r="C3">
-        <v>0.63855404408750893</v>
+        <v>0.279833453987195</v>
       </c>
       <c r="D3">
-        <v>7.2120950875105162E-3</v>
+        <v>4.5730588432156107E-3</v>
       </c>
       <c r="E3">
-        <v>2.3322928784572719E-2</v>
+        <v>1.303273380873959E-2</v>
       </c>
       <c r="F3">
-        <v>0.89794130079129053</v>
+        <v>0.81766665355022605</v>
       </c>
       <c r="G3">
         <v>0.83705726579801099</v>
@@ -838,112 +838,112 @@
         <v>0.938912040078975</v>
       </c>
       <c r="I3">
-        <v>0.68645597946322878</v>
+        <v>8.2915355481762196E-2</v>
       </c>
       <c r="J3">
-        <v>0.89139816996806298</v>
+        <v>0.76539605739643057</v>
       </c>
       <c r="K3">
-        <v>0.30884647216498001</v>
+        <v>0.19678865195313899</v>
       </c>
       <c r="L3">
-        <v>0.2388306267140734</v>
+        <v>0.18056871939620819</v>
       </c>
       <c r="M3">
-        <v>8.8102714485852898E-2</v>
+        <v>9.1409390979328695E-2</v>
       </c>
       <c r="N3">
-        <v>9.1426731560706395E-2</v>
+        <v>6.2643911137507086E-2</v>
       </c>
       <c r="O3">
         <v>0.63389281488985105</v>
       </c>
       <c r="P3">
-        <v>0.97084189112677</v>
+        <v>0.48799553239317378</v>
       </c>
       <c r="Q3">
-        <v>0.20365209281354699</v>
+        <v>0.26941279217771769</v>
       </c>
       <c r="R3">
-        <v>0.20915858362926609</v>
+        <v>0.26771609448973333</v>
       </c>
       <c r="S3">
-        <v>7.8910180959850251E-2</v>
+        <v>9.1674732683102625E-2</v>
       </c>
       <c r="T3">
-        <v>9.1620661165299502E-2</v>
+        <v>9.2161545642932233E-2</v>
       </c>
       <c r="U3">
-        <v>0.51255313256903301</v>
+        <v>0.61046740162011282</v>
       </c>
       <c r="V3">
         <v>0.84410096815420399</v>
       </c>
       <c r="W3">
-        <v>0.31694482566661147</v>
+        <v>0.23421244207015501</v>
       </c>
       <c r="X3">
         <v>0.298063900489144</v>
       </c>
       <c r="Y3">
-        <v>7.3478267016856544E-2</v>
+        <v>4.67608505202751E-2</v>
       </c>
       <c r="Z3">
-        <v>9.4932135800765649E-2</v>
+        <v>5.8604597107539597E-2</v>
       </c>
       <c r="AA3">
-        <v>0.72693454033265903</v>
+        <v>0.68823328598918276</v>
       </c>
       <c r="AB3">
-        <v>0.20270858100195199</v>
+        <v>0.12265576255327131</v>
       </c>
       <c r="AC3">
-        <v>0.32104608326228018</v>
+        <v>0.1513315172425925</v>
       </c>
       <c r="AD3">
-        <v>8.8304487696897915E-2</v>
+        <v>4.5656733633480828E-2</v>
       </c>
       <c r="AE3">
-        <v>9.6589583842310783E-2</v>
+        <v>3.7052656274977898E-2</v>
       </c>
       <c r="AF3">
-        <v>0.30200591996311138</v>
+        <v>0.17484153182501691</v>
       </c>
       <c r="AG3">
-        <v>0.70873258955772211</v>
+        <v>0.24586940002099431</v>
       </c>
       <c r="AH3">
-        <v>0.31250633967982749</v>
+        <v>0.12328589386213511</v>
       </c>
       <c r="AI3">
-        <v>0.22808065933811639</v>
+        <v>0.30313399769979688</v>
       </c>
       <c r="AJ3">
-        <v>7.87677065422311E-2</v>
+        <v>9.8454095587671014E-2</v>
       </c>
       <c r="AK3">
-        <v>9.6863324001928652E-2</v>
+        <v>5.7276742831977499E-2</v>
       </c>
       <c r="AL3">
-        <v>0.56956657654165777</v>
+        <v>0.50451492188423086</v>
       </c>
       <c r="AM3">
-        <v>0.63217241092265097</v>
+        <v>0.25959463068922922</v>
       </c>
       <c r="AN3">
-        <v>0.27441392617138533</v>
+        <v>0.25280292919952702</v>
       </c>
       <c r="AO3">
         <v>0.32181015720016198</v>
       </c>
       <c r="AP3">
-        <v>9.8619744334819043E-2</v>
+        <v>6.9184246677001696E-2</v>
       </c>
       <c r="AQ3">
-        <v>9.2471551226675899E-2</v>
+        <v>3.8138699248282497E-2</v>
       </c>
       <c r="AR3">
-        <v>0.75948171815090304</v>
+        <v>0.7187523829388005</v>
       </c>
     </row>
   </sheetData>

--- a/ranges.xlsx
+++ b/ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyneil/Desktop/rewilding_resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844A48A-DE5C-124D-8ACA-3BC8A0469E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05790E-5493-1549-805E-7518B591921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16120" xr2:uid="{A8547E30-E349-F442-B51D-1AAEFCC73482}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:AW3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,240 +680,240 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.0677978349522549E-2</v>
+        <v>9.1200749286037832E-4</v>
       </c>
       <c r="B2">
-        <v>7.3699784085355158E-2</v>
+        <v>2.6703744601114239E-3</v>
       </c>
       <c r="C2">
-        <v>0.23251663668636049</v>
+        <v>1.682629052748186E-3</v>
       </c>
       <c r="D2">
-        <v>1.8670164546399999E-3</v>
+        <v>1.708834403512074E-3</v>
       </c>
       <c r="E2">
-        <v>3.0390863895783998E-3</v>
+        <v>2.4962532558227852E-3</v>
       </c>
       <c r="F2">
-        <v>0.31924438159449431</v>
+        <v>3.9558299248363396E-3</v>
       </c>
       <c r="G2">
-        <v>0.25547200692240479</v>
+        <v>1.3223841491544991E-2</v>
       </c>
       <c r="H2">
-        <v>0.37664605190257072</v>
+        <v>4.3232679074113323E-3</v>
       </c>
       <c r="I2">
-        <v>2.3635916749662482E-3</v>
+        <v>2.342912760689986E-4</v>
       </c>
       <c r="J2">
-        <v>0.12744690276312801</v>
+        <v>1.2748407690540971E-3</v>
       </c>
       <c r="K2">
-        <v>1.3871949443754821E-2</v>
+        <v>1.363245493417931E-5</v>
       </c>
       <c r="L2">
-        <v>1.5923241139799298E-2</v>
+        <v>2.25772499597332E-5</v>
       </c>
       <c r="M2">
-        <v>5.4910744572851701E-2</v>
+        <v>2.5628749472644818E-4</v>
       </c>
       <c r="N2">
-        <v>2.6471378178950001E-2</v>
+        <v>4.0112697286892319E-4</v>
       </c>
       <c r="O2">
-        <v>0.56198219733596044</v>
+        <v>0.30599142088528408</v>
       </c>
       <c r="P2">
-        <v>2.0989209613724601E-2</v>
+        <v>4.49350475608411E-3</v>
       </c>
       <c r="Q2">
-        <v>0.17470353760207799</v>
+        <v>9.3333638120508442E-4</v>
       </c>
       <c r="R2">
-        <v>0.18075157117934901</v>
+        <v>1.0932369818547061E-5</v>
       </c>
       <c r="S2">
-        <v>5.3448301575575001E-3</v>
+        <v>2.1238811987205899E-4</v>
       </c>
       <c r="T2">
-        <v>8.5698109252469595E-2</v>
+        <v>1.001945150389316E-4</v>
       </c>
       <c r="U2">
-        <v>0.41043778180456802</v>
+        <v>0.3111227608422385</v>
       </c>
       <c r="V2">
-        <v>0.82270638127721052</v>
+        <v>1.3668569326076849E-3</v>
       </c>
       <c r="W2">
-        <v>0.17026660211100389</v>
+        <v>2.3957253291987719E-4</v>
       </c>
       <c r="X2">
-        <v>0.15832096809013901</v>
+        <v>3.2349862834983091E-4</v>
       </c>
       <c r="Y2">
-        <v>1.5065164473948079E-2</v>
+        <v>1.9754839422765069E-4</v>
       </c>
       <c r="Z2">
-        <v>8.6315764336884811E-3</v>
+        <v>5.8944562074980948E-4</v>
       </c>
       <c r="AA2">
-        <v>0.42496023035477798</v>
+        <v>7.7914279317317092E-3</v>
       </c>
       <c r="AB2">
-        <v>5.6174209245325499E-2</v>
+        <v>2.1323551616689201E-4</v>
       </c>
       <c r="AC2">
-        <v>3.3825955628502102E-2</v>
+        <v>1.931438928939239E-5</v>
       </c>
       <c r="AD2">
-        <v>1.2356657523411699E-2</v>
+        <v>2.1161544683241941E-4</v>
       </c>
       <c r="AE2">
-        <v>6.1496742445768309E-3</v>
+        <v>1.2641619549514101E-4</v>
       </c>
       <c r="AF2">
-        <v>0.115646764697444</v>
+        <v>1.1518705815271041E-2</v>
       </c>
       <c r="AG2">
-        <v>5.3884223593677498E-2</v>
+        <v>4.4056814413090386E-3</v>
       </c>
       <c r="AH2">
-        <v>1.1418786832505299E-2</v>
+        <v>3.0206254214389721E-3</v>
       </c>
       <c r="AI2">
-        <v>0.21766613578879801</v>
+        <v>7.1608950590809335E-4</v>
       </c>
       <c r="AJ2">
-        <v>1.11678579741689E-2</v>
+        <v>9.0714327924140695E-5</v>
       </c>
       <c r="AK2">
-        <v>5.3188124930330212E-2</v>
+        <v>4.4691804702232671E-4</v>
       </c>
       <c r="AL2">
-        <v>0.34933321383960902</v>
+        <v>2.9260998973721669E-2</v>
       </c>
       <c r="AM2">
-        <v>0.13987820281646199</v>
+        <v>6.4914776702367106E-3</v>
       </c>
       <c r="AN2">
-        <v>0.20445431848723319</v>
+        <v>9.5104817921684126E-4</v>
       </c>
       <c r="AO2">
-        <v>0.20020611918677381</v>
+        <v>1.213889686106973E-4</v>
       </c>
       <c r="AP2">
-        <v>3.8150943046188233E-2</v>
+        <v>2.6477381823688091E-4</v>
       </c>
       <c r="AQ2">
-        <v>1.038944944375564E-2</v>
+        <v>3.0230373118833588E-6</v>
       </c>
       <c r="AR2">
-        <v>0.33475583517440999</v>
+        <v>3.3545431975818829E-2</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2.07306177012637E-2</v>
+        <v>0.19578481000823919</v>
       </c>
       <c r="B3">
-        <v>0.36791989849481899</v>
+        <v>0.98182080582845999</v>
       </c>
       <c r="C3">
-        <v>0.279833453987195</v>
+        <v>0.99372299235417905</v>
       </c>
       <c r="D3">
-        <v>4.5730588432156107E-3</v>
+        <v>8.2482710628555746E-3</v>
       </c>
       <c r="E3">
-        <v>1.303273380873959E-2</v>
+        <v>2.7206158463695181E-2</v>
       </c>
       <c r="F3">
-        <v>0.81766665355022605</v>
+        <v>0.99522213322322273</v>
       </c>
       <c r="G3">
-        <v>0.83705726579801099</v>
+        <v>0.99308911515654008</v>
       </c>
       <c r="H3">
-        <v>0.938912040078975</v>
+        <v>0.99944097759397688</v>
       </c>
       <c r="I3">
-        <v>8.2915355481762196E-2</v>
+        <v>0.7206497714488922</v>
       </c>
       <c r="J3">
-        <v>0.76539605739643057</v>
+        <v>0.97668883515212834</v>
       </c>
       <c r="K3">
-        <v>0.19678865195313899</v>
+        <v>0.28464375235152822</v>
       </c>
       <c r="L3">
-        <v>0.18056871939620819</v>
+        <v>0.30236643851735512</v>
       </c>
       <c r="M3">
-        <v>9.1409390979328695E-2</v>
+        <v>9.9694582695835615E-2</v>
       </c>
       <c r="N3">
-        <v>6.2643911137507086E-2</v>
+        <v>9.8086362926779289E-2</v>
       </c>
       <c r="O3">
-        <v>0.63389281488985105</v>
+        <v>0.74672000357654145</v>
       </c>
       <c r="P3">
-        <v>0.48799553239317378</v>
+        <v>0.81938119069666848</v>
       </c>
       <c r="Q3">
-        <v>0.26941279217771769</v>
+        <v>0.30834579840874338</v>
       </c>
       <c r="R3">
-        <v>0.26771609448973333</v>
+        <v>0.30801416180301949</v>
       </c>
       <c r="S3">
-        <v>9.1674732683102625E-2</v>
+        <v>9.5156480272306998E-2</v>
       </c>
       <c r="T3">
-        <v>9.2161545642932233E-2</v>
+        <v>9.7067777803672331E-2</v>
       </c>
       <c r="U3">
-        <v>0.61046740162011282</v>
+        <v>0.74990433577360693</v>
       </c>
       <c r="V3">
-        <v>0.84410096815420399</v>
+        <v>0.97745175030552789</v>
       </c>
       <c r="W3">
-        <v>0.23421244207015501</v>
+        <v>0.30320119619793828</v>
       </c>
       <c r="X3">
-        <v>0.298063900489144</v>
+        <v>0.31798840970224429</v>
       </c>
       <c r="Y3">
-        <v>4.67608505202751E-2</v>
+        <v>9.3290278461768184E-2</v>
       </c>
       <c r="Z3">
-        <v>5.8604597107539597E-2</v>
+        <v>9.1713768408342958E-2</v>
       </c>
       <c r="AA3">
-        <v>0.68823328598918276</v>
+        <v>0.9338262935284265</v>
       </c>
       <c r="AB3">
-        <v>0.12265576255327131</v>
+        <v>0.32196086832130782</v>
       </c>
       <c r="AC3">
-        <v>0.1513315172425925</v>
+        <v>0.27769881368615978</v>
       </c>
       <c r="AD3">
-        <v>4.5656733633480828E-2</v>
+        <v>9.0418944668912454E-2</v>
       </c>
       <c r="AE3">
-        <v>3.7052656274977898E-2</v>
+        <v>9.1080614217186176E-2</v>
       </c>
       <c r="AF3">
-        <v>0.17484153182501691</v>
+        <v>0.49318963433684698</v>
       </c>
       <c r="AG3">
-        <v>0.24586940002099431</v>
+        <v>0.95001736384242319</v>
       </c>
       <c r="AH3">
-        <v>0.12328589386213511</v>
+        <v>0.3247507161258546</v>
       </c>
       <c r="AI3">
         <v>0.30313399769979688</v>
@@ -922,28 +922,28 @@
         <v>9.8454095587671014E-2</v>
       </c>
       <c r="AK3">
-        <v>5.7276742831977499E-2</v>
+        <v>8.8823551670109649E-2</v>
       </c>
       <c r="AL3">
-        <v>0.50451492188423086</v>
+        <v>0.74424878381239645</v>
       </c>
       <c r="AM3">
-        <v>0.25959463068922922</v>
+        <v>0.97076237527343701</v>
       </c>
       <c r="AN3">
-        <v>0.25280292919952702</v>
+        <v>0.3112860980456742</v>
       </c>
       <c r="AO3">
         <v>0.32181015720016198</v>
       </c>
       <c r="AP3">
-        <v>6.9184246677001696E-2</v>
+        <v>9.769252671524993E-2</v>
       </c>
       <c r="AQ3">
-        <v>3.8138699248282497E-2</v>
+        <v>9.9849898942861573E-2</v>
       </c>
       <c r="AR3">
-        <v>0.7187523829388005</v>
+        <v>0.98538187834648805</v>
       </c>
     </row>
   </sheetData>
